--- a/Evaluation_V2/Classeur1.xlsx
+++ b/Evaluation_V2/Classeur1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D3A5738-1C58-4861-A967-07FBACA25B48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E3CE61-687D-4DFB-AB96-BF5731E3EB3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{B7B9EB1A-3F99-4D80-94F7-87DE04B29059}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Note /20</t>
-  </si>
-  <si>
-    <t>Barème</t>
   </si>
   <si>
     <t>Note/20</t>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>c2</t>
+  </si>
+  <si>
+    <t>Bareme</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,9 +734,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,6 +793,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,10 +1572,10 @@
   <dimension ref="A1:AO106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B32" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI50" sqref="AI50:AI54"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,235 +1591,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="80">
+      <c r="A1" s="79">
         <v>33</v>
       </c>
-      <c r="B1" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="77" t="s">
+      <c r="B1" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="D1" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="G1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="H1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="J1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="L1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="M1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="N1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="O1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="77" t="s">
+      <c r="P1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="Q1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="R1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="S1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="77" t="s">
+      <c r="T1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="77" t="s">
+      <c r="U1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="77" t="s">
+      <c r="V1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="77" t="s">
+      <c r="W1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="77" t="s">
+      <c r="X1" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="77" t="s">
+      <c r="Y1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="77" t="s">
+      <c r="Z1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AA1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="77" t="s">
+      <c r="AB1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="77" t="s">
+      <c r="AC1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="77" t="s">
+      <c r="AD1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="77" t="s">
+      <c r="AE1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="77" t="s">
+      <c r="AF1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="76" t="s">
+      <c r="AG1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="81"/>
+      <c r="AH1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="80"/>
       <c r="AJ1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK1" s="75">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="74">
         <f>COUNTIF(AK5:AK49,0)</f>
         <v>0</v>
       </c>
-      <c r="AL1" s="74">
+      <c r="AL1" s="73">
         <f>45-AK1</f>
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="72">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68">
+        <v>2</v>
+      </c>
+      <c r="D2" s="71">
+        <v>1</v>
+      </c>
+      <c r="E2" s="68">
+        <v>2</v>
+      </c>
+      <c r="F2" s="68">
+        <v>2</v>
+      </c>
+      <c r="G2" s="70">
+        <v>1</v>
+      </c>
+      <c r="H2" s="68">
+        <v>3</v>
+      </c>
+      <c r="I2" s="68">
+        <v>1</v>
+      </c>
+      <c r="J2" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="K2" s="68">
+        <v>3</v>
+      </c>
+      <c r="L2" s="70">
+        <v>1</v>
+      </c>
+      <c r="M2" s="68">
+        <v>3</v>
+      </c>
+      <c r="N2" s="68">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="68">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>2</v>
+      </c>
+      <c r="R2" s="68">
+        <v>1</v>
+      </c>
+      <c r="S2" s="69">
+        <v>1</v>
+      </c>
+      <c r="T2" s="68">
+        <v>1</v>
+      </c>
+      <c r="U2" s="68">
+        <v>1</v>
+      </c>
+      <c r="V2" s="68">
+        <v>1</v>
+      </c>
+      <c r="W2" s="68">
+        <v>1</v>
+      </c>
+      <c r="X2" s="68">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="68">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="68">
         <v>4</v>
       </c>
-      <c r="B2" s="73">
-        <v>1</v>
-      </c>
-      <c r="C2" s="69">
+      <c r="AE2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="68">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="67">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72">
-        <v>1</v>
-      </c>
-      <c r="E2" s="69">
-        <v>2</v>
-      </c>
-      <c r="F2" s="69">
-        <v>2</v>
-      </c>
-      <c r="G2" s="71">
-        <v>1</v>
-      </c>
-      <c r="H2" s="69">
-        <v>3</v>
-      </c>
-      <c r="I2" s="69">
-        <v>1</v>
-      </c>
-      <c r="J2" s="69">
-        <v>1.5</v>
-      </c>
-      <c r="K2" s="69">
-        <v>3</v>
-      </c>
-      <c r="L2" s="71">
-        <v>1</v>
-      </c>
-      <c r="M2" s="69">
-        <v>3</v>
-      </c>
-      <c r="N2" s="69">
-        <v>1.5</v>
-      </c>
-      <c r="O2" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="69">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="69">
-        <v>2</v>
-      </c>
-      <c r="R2" s="69">
-        <v>1</v>
-      </c>
-      <c r="S2" s="70">
-        <v>1</v>
-      </c>
-      <c r="T2" s="69">
-        <v>1</v>
-      </c>
-      <c r="U2" s="69">
-        <v>1</v>
-      </c>
-      <c r="V2" s="69">
-        <v>1</v>
-      </c>
-      <c r="W2" s="69">
-        <v>1</v>
-      </c>
-      <c r="X2" s="69">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="69">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="69">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="69">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="68">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="66" t="s">
-        <v>2</v>
+      <c r="AK2" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>1</v>
+      <c r="A3" s="86" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="64">
         <v>5</v>
@@ -1917,7 +1920,7 @@
       <c r="AH3" s="61">
         <v>5</v>
       </c>
-      <c r="AI3" s="82"/>
+      <c r="AI3" s="81"/>
       <c r="AJ3" s="3">
         <f>SUMPRODUCT(B2:AH2,B3:AH3)</f>
         <v>252.5</v>
@@ -1932,138 +1935,138 @@
         <v>0</v>
       </c>
       <c r="B4" s="59">
-        <f>B2*B3/$AJ$3*20</f>
+        <f t="shared" ref="B4:AH4" si="0">B2*B3/$AJ$3*20</f>
         <v>0.39603960396039606</v>
       </c>
       <c r="C4" s="57">
-        <f>C2*C3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="D4" s="58">
-        <f>D2*D3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="E4" s="57">
-        <f>E2*E3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="F4" s="57">
-        <f>F2*F3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="G4" s="57">
-        <f>G2*G3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="H4" s="57">
-        <f>H2*H3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.1881188118811881</v>
       </c>
       <c r="I4" s="57">
-        <f>I2*I3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="J4" s="57">
-        <f>J2*J3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.59405940594059403</v>
       </c>
       <c r="K4" s="57">
-        <f>K2*K3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.1881188118811881</v>
       </c>
       <c r="L4" s="57">
-        <f>L2*L3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="M4" s="57">
-        <f>M2*M3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.1881188118811881</v>
       </c>
       <c r="N4" s="57">
-        <f>N2*N3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.59405940594059403</v>
       </c>
       <c r="O4" s="57">
-        <f>O2*O3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.19801980198019803</v>
       </c>
       <c r="P4" s="57">
-        <f>P2*P3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="Q4" s="57">
-        <f>Q2*Q3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="R4" s="57">
-        <f>R2*R3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="S4" s="57">
-        <f>S2*S3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="T4" s="57">
-        <f>T2*T3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="U4" s="57">
-        <f>U2*U3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="V4" s="57">
-        <f>V2*V3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="W4" s="57">
-        <f>W2*W3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="X4" s="57">
-        <f>X2*X3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.79207920792079212</v>
       </c>
       <c r="Y4" s="57">
-        <f>Y2*Y3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.1881188118811881</v>
       </c>
       <c r="Z4" s="57">
-        <f>Z2*Z3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AA4" s="57">
-        <f>AA2*AA3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AB4" s="57">
-        <f>AB2*AB3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AC4" s="57">
-        <f>AC2*AC3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AD4" s="57">
-        <f>AD2*AD3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>1.5841584158415842</v>
       </c>
       <c r="AE4" s="57">
-        <f>AE2*AE3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AF4" s="57">
-        <f>AF2*AF3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AG4" s="57">
-        <f>AG2*AG3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
       <c r="AH4" s="56">
-        <f>AH2*AH3/$AJ$3*20</f>
+        <f t="shared" si="0"/>
         <v>0.39603960396039606</v>
       </c>
-      <c r="AI4" s="83"/>
+      <c r="AI4" s="82"/>
       <c r="AK4" s="2">
         <f>AVERAGE(AK5:AK49)</f>
         <v>5.7724972497249709</v>
@@ -2074,7 +2077,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+      <c r="A5" s="78">
         <v>1</v>
       </c>
       <c r="B5" s="27">
@@ -2176,23 +2179,23 @@
       <c r="AH5" s="46">
         <v>0</v>
       </c>
-      <c r="AI5" s="85" t="s">
-        <v>39</v>
+      <c r="AI5" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" ref="AJ5:AJ49" si="0">SUMPRODUCT($B$2:$AH$2,B5:AH5)</f>
+        <f t="shared" ref="AJ5:AJ49" si="1">SUMPRODUCT($B$2:$AH$2,B5:AH5)</f>
         <v>83.5</v>
       </c>
       <c r="AK5" s="2">
-        <f t="shared" ref="AK5:AK49" si="1">AJ5*20/$AJ$3</f>
+        <f t="shared" ref="AK5:AK49" si="2">AJ5*20/$AJ$3</f>
         <v>6.6138613861386135</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL49" si="2">RANK(AK5,$AK$5:$AK$49)</f>
+        <f t="shared" ref="AL5:AL49" si="3">RANK(AK5,$AK$5:$AK$49)</f>
         <v>13</v>
       </c>
       <c r="AM5" s="12">
-        <f t="shared" ref="AM5:AM49" si="3">AK5*1.72</f>
+        <f t="shared" ref="AM5:AM49" si="4">AK5*1.72</f>
         <v>11.375841584158415</v>
       </c>
     </row>
@@ -2299,23 +2302,23 @@
       <c r="AH6" s="18">
         <v>0</v>
       </c>
-      <c r="AI6" s="85" t="s">
-        <v>48</v>
+      <c r="AI6" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136.5</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.811881188118813</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AM6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.596435643564359</v>
       </c>
       <c r="AN6" s="1">
@@ -2429,23 +2432,23 @@
       <c r="AH7" s="18">
         <v>0</v>
       </c>
-      <c r="AI7" s="85" t="s">
-        <v>40</v>
+      <c r="AI7" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6237623762376234</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AM7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6728712871287126</v>
       </c>
       <c r="AO7" s="1">
@@ -2556,23 +2559,23 @@
       <c r="AH8" s="18">
         <v>5</v>
       </c>
-      <c r="AI8" s="85" t="s">
-        <v>41</v>
+      <c r="AI8" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.5</v>
       </c>
       <c r="AK8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4059405940594063</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="AM8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.738217821782179</v>
       </c>
     </row>
@@ -2679,23 +2682,23 @@
       <c r="AH9" s="13">
         <v>0</v>
       </c>
-      <c r="AI9" s="85" t="s">
-        <v>42</v>
+      <c r="AI9" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AM9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.88</v>
       </c>
     </row>
@@ -2802,23 +2805,23 @@
       <c r="AH10" s="40">
         <v>0</v>
       </c>
-      <c r="AI10" s="84" t="s">
-        <v>43</v>
+      <c r="AI10" s="83" t="s">
+        <v>42</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6534653465346532</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AM10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.443960396039603</v>
       </c>
     </row>
@@ -2925,23 +2928,23 @@
       <c r="AH11" s="34">
         <v>0</v>
       </c>
-      <c r="AI11" s="84" t="s">
-        <v>44</v>
+      <c r="AI11" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.5</v>
       </c>
       <c r="AK11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8712871287128712</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="AM11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.378613861386139</v>
       </c>
     </row>
@@ -3048,23 +3051,23 @@
       <c r="AH12" s="34">
         <v>0</v>
       </c>
-      <c r="AI12" s="84" t="s">
-        <v>45</v>
+      <c r="AI12" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1881188118811883</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="AM12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9235643564356444</v>
       </c>
     </row>
@@ -3171,23 +3174,23 @@
       <c r="AH13" s="34">
         <v>0</v>
       </c>
-      <c r="AI13" s="84" t="s">
-        <v>46</v>
+      <c r="AI13" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.891089108910891</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AM13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.852673267326733</v>
       </c>
     </row>
@@ -3294,23 +3297,23 @@
       <c r="AH14" s="29">
         <v>0</v>
       </c>
-      <c r="AI14" s="84" t="s">
-        <v>47</v>
+      <c r="AI14" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0297029702970297</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="AM14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6510891089108917</v>
       </c>
     </row>
@@ -3417,23 +3420,23 @@
       <c r="AH15" s="46">
         <v>0</v>
       </c>
-      <c r="AI15" s="85" t="s">
-        <v>39</v>
+      <c r="AI15" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43.5</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4455445544554455</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="AM15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9263366336633663</v>
       </c>
     </row>
@@ -3540,23 +3543,23 @@
       <c r="AH16" s="18">
         <v>2</v>
       </c>
-      <c r="AI16" s="85" t="s">
-        <v>48</v>
+      <c r="AI16" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1485148514851486</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AM16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.8554455445544562</v>
       </c>
     </row>
@@ -3663,23 +3666,23 @@
       <c r="AH17" s="18">
         <v>0</v>
       </c>
-      <c r="AI17" s="85" t="s">
-        <v>40</v>
+      <c r="AI17" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6138613861386135</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AM17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.375841584158415</v>
       </c>
     </row>
@@ -3786,23 +3789,23 @@
       <c r="AH18" s="18">
         <v>0</v>
       </c>
-      <c r="AI18" s="85" t="s">
-        <v>41</v>
+      <c r="AI18" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
       <c r="AK18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3762376237623766</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AM18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.967128712871288</v>
       </c>
     </row>
@@ -3909,23 +3912,23 @@
       <c r="AH19" s="13">
         <v>0</v>
       </c>
-      <c r="AI19" s="85" t="s">
-        <v>42</v>
+      <c r="AI19" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5445544554455441</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AM19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5366336633663362</v>
       </c>
     </row>
@@ -4032,23 +4035,23 @@
       <c r="AH20" s="40">
         <v>0</v>
       </c>
-      <c r="AI20" s="84" t="s">
-        <v>43</v>
+      <c r="AI20" s="83" t="s">
+        <v>42</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1782178217821784</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="AM20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.626534653465347</v>
       </c>
     </row>
@@ -4155,23 +4158,23 @@
       <c r="AH21" s="34">
         <v>0</v>
       </c>
-      <c r="AI21" s="84" t="s">
-        <v>44</v>
+      <c r="AI21" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8217821782178216</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AM21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.013465346534653</v>
       </c>
     </row>
@@ -4278,23 +4281,23 @@
       <c r="AH22" s="52">
         <v>0</v>
       </c>
-      <c r="AI22" s="84" t="s">
-        <v>45</v>
+      <c r="AI22" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="AK22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0297029702970288</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AM22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.531089108910889</v>
       </c>
     </row>
@@ -4401,23 +4404,23 @@
       <c r="AH23" s="34">
         <v>0</v>
       </c>
-      <c r="AI23" s="84" t="s">
-        <v>46</v>
+      <c r="AI23" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9504950495049505</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="AM23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.5148514851485153</v>
       </c>
     </row>
@@ -4524,23 +4527,23 @@
       <c r="AH24" s="51">
         <v>0</v>
       </c>
-      <c r="AI24" s="84" t="s">
-        <v>47</v>
+      <c r="AI24" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9702970297029703</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="AM24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.108910891089109</v>
       </c>
     </row>
@@ -4647,23 +4650,23 @@
       <c r="AH25" s="46">
         <v>1</v>
       </c>
-      <c r="AI25" s="85" t="s">
-        <v>39</v>
+      <c r="AI25" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.25</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.009900990099009</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AM25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.377029702970294</v>
       </c>
     </row>
@@ -4770,23 +4773,23 @@
       <c r="AH26" s="18">
         <v>0</v>
       </c>
-      <c r="AI26" s="85" t="s">
-        <v>48</v>
+      <c r="AI26" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.75</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3465346534653468</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AM26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.636039603960397</v>
       </c>
     </row>
@@ -4877,23 +4880,23 @@
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="18"/>
-      <c r="AI27" s="85" t="s">
-        <v>40</v>
+      <c r="AI27" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="AJ27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8613861386138613</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AM27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.081584158415842</v>
       </c>
     </row>
@@ -5000,23 +5003,23 @@
       <c r="AH28" s="18">
         <v>0</v>
       </c>
-      <c r="AI28" s="85" t="s">
-        <v>41</v>
+      <c r="AI28" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.435643564356436</v>
       </c>
       <c r="AL28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="AM28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6293069306930699</v>
       </c>
     </row>
@@ -5123,23 +5126,23 @@
       <c r="AH29" s="13">
         <v>0</v>
       </c>
-      <c r="AI29" s="85" t="s">
-        <v>42</v>
+      <c r="AI29" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9108910891089108</v>
       </c>
       <c r="AL29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AM29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4467326732673271</v>
       </c>
     </row>
@@ -5246,23 +5249,23 @@
       <c r="AH30" s="40">
         <v>0</v>
       </c>
-      <c r="AI30" s="84" t="s">
-        <v>43</v>
+      <c r="AI30" s="83" t="s">
+        <v>42</v>
       </c>
       <c r="AJ30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5643564356435644</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AM30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1306930693069308</v>
       </c>
     </row>
@@ -5369,23 +5372,23 @@
       <c r="AH31" s="34">
         <v>0</v>
       </c>
-      <c r="AI31" s="84" t="s">
-        <v>44</v>
+      <c r="AI31" s="83" t="s">
+        <v>43</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6534653465346532</v>
       </c>
       <c r="AL31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AM31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.443960396039603</v>
       </c>
     </row>
@@ -5492,23 +5495,23 @@
       <c r="AH32" s="34">
         <v>0</v>
       </c>
-      <c r="AI32" s="84" t="s">
-        <v>45</v>
+      <c r="AI32" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="AJ32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0792079207920793</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AM32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.896237623762376</v>
       </c>
     </row>
@@ -5615,23 +5618,23 @@
       <c r="AH33" s="34">
         <v>0</v>
       </c>
-      <c r="AI33" s="84" t="s">
-        <v>46</v>
+      <c r="AI33" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="AJ33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3168316831683171</v>
       </c>
       <c r="AL33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="AM33" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4249504950495053</v>
       </c>
     </row>
@@ -5738,23 +5741,23 @@
       <c r="AH34" s="29">
         <v>0</v>
       </c>
-      <c r="AI34" s="84" t="s">
-        <v>47</v>
+      <c r="AI34" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="AJ34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3465346534653464</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="AM34" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7560396039603958</v>
       </c>
     </row>
@@ -5861,23 +5864,23 @@
       <c r="AH35" s="46">
         <v>0</v>
       </c>
-      <c r="AI35" s="85" t="s">
-        <v>39</v>
+      <c r="AI35" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="AJ35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.5</v>
       </c>
       <c r="AK35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3960396039603964</v>
       </c>
       <c r="AL35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="AM35" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5611881188118817</v>
       </c>
     </row>
@@ -5984,23 +5987,23 @@
       <c r="AH36" s="18">
         <v>0</v>
       </c>
-      <c r="AI36" s="85" t="s">
-        <v>48</v>
+      <c r="AI36" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="AJ36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
       <c r="AK36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.495049504950495</v>
       </c>
       <c r="AL36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="AM36" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2914851485148517</v>
       </c>
     </row>
@@ -6107,23 +6110,23 @@
       <c r="AH37" s="18">
         <v>0</v>
       </c>
-      <c r="AI37" s="85" t="s">
-        <v>40</v>
+      <c r="AI37" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="AJ37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8019801980198018</v>
       </c>
       <c r="AL37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="AM37" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.539405940594059</v>
       </c>
     </row>
@@ -6230,23 +6233,23 @@
       <c r="AH38" s="18">
         <v>4</v>
       </c>
-      <c r="AI38" s="85" t="s">
-        <v>41</v>
+      <c r="AI38" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.5</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2475247524752477</v>
       </c>
       <c r="AL38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AM38" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.465742574257426</v>
       </c>
     </row>
@@ -6353,23 +6356,23 @@
       <c r="AH39" s="13">
         <v>0</v>
       </c>
-      <c r="AI39" s="85" t="s">
-        <v>42</v>
+      <c r="AI39" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="AJ39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7920792079207919</v>
       </c>
       <c r="AL39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="AM39" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2423762376237626</v>
       </c>
     </row>
@@ -6476,23 +6479,23 @@
       <c r="AH40" s="40">
         <v>0</v>
       </c>
-      <c r="AI40" s="84" t="s">
-        <v>43</v>
+      <c r="AI40" s="83" t="s">
+        <v>42</v>
       </c>
       <c r="AJ40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.5</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8217821782178216</v>
       </c>
       <c r="AL40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="AM40" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.013465346534653</v>
       </c>
     </row>
@@ -6599,23 +6602,23 @@
       <c r="AH41" s="34">
         <v>0</v>
       </c>
-      <c r="AI41" s="84" t="s">
+      <c r="AI41" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ41" s="3">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AK41" s="3">
+        <f t="shared" si="2"/>
+        <v>2.613861386138614</v>
+      </c>
+      <c r="AL41" s="2">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="AJ41" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AK41" s="3">
-        <f t="shared" si="1"/>
-        <v>2.613861386138614</v>
-      </c>
-      <c r="AL41" s="2">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
       <c r="AM41" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4958415841584163</v>
       </c>
     </row>
@@ -6722,23 +6725,23 @@
       <c r="AH42" s="34">
         <v>0</v>
       </c>
-      <c r="AI42" s="84" t="s">
-        <v>45</v>
+      <c r="AI42" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="AJ42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="AK42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1089108910891081</v>
       </c>
       <c r="AL42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AM42" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.667326732673265</v>
       </c>
     </row>
@@ -6845,23 +6848,23 @@
       <c r="AH43" s="34">
         <v>0</v>
       </c>
-      <c r="AI43" s="84" t="s">
-        <v>46</v>
+      <c r="AI43" s="83" t="s">
+        <v>45</v>
       </c>
       <c r="AJ43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.5</v>
       </c>
       <c r="AK43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3168316831683171</v>
       </c>
       <c r="AL43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="AM43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4249504950495053</v>
       </c>
     </row>
@@ -6966,23 +6969,23 @@
       <c r="AH44" s="29">
         <v>5</v>
       </c>
-      <c r="AI44" s="84" t="s">
-        <v>47</v>
+      <c r="AI44" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="AJ44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="AK44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2376237623762378</v>
       </c>
       <c r="AL44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="AM44" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.168712871287129</v>
       </c>
     </row>
@@ -7089,23 +7092,23 @@
       <c r="AH45" s="24">
         <v>5</v>
       </c>
-      <c r="AI45" s="85" t="s">
-        <v>39</v>
+      <c r="AI45" s="84" t="s">
+        <v>38</v>
       </c>
       <c r="AJ45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.5</v>
       </c>
       <c r="AK45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.108910891089109</v>
       </c>
       <c r="AL45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="AM45" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.787326732673268</v>
       </c>
     </row>
@@ -7212,23 +7215,23 @@
       <c r="AH46" s="18">
         <v>0</v>
       </c>
-      <c r="AI46" s="85" t="s">
-        <v>48</v>
+      <c r="AI46" s="84" t="s">
+        <v>47</v>
       </c>
       <c r="AJ46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.5</v>
       </c>
       <c r="AK46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3960396039603964</v>
       </c>
       <c r="AL46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="AM46" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5611881188118817</v>
       </c>
     </row>
@@ -7335,23 +7338,23 @@
       <c r="AH47" s="18">
         <v>0</v>
       </c>
-      <c r="AI47" s="85" t="s">
-        <v>40</v>
+      <c r="AI47" s="84" t="s">
+        <v>39</v>
       </c>
       <c r="AJ47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="AK47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2574257425742577</v>
       </c>
       <c r="AL47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AM47" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.762772277227723</v>
       </c>
     </row>
@@ -7458,23 +7461,23 @@
       <c r="AH48" s="18">
         <v>0</v>
       </c>
-      <c r="AI48" s="85" t="s">
-        <v>41</v>
+      <c r="AI48" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="AJ48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
       <c r="AK48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4455445544554459</v>
       </c>
       <c r="AL48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AM48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.3663366336633676</v>
       </c>
     </row>
@@ -7581,23 +7584,23 @@
       <c r="AH49" s="13">
         <v>0</v>
       </c>
-      <c r="AI49" s="85" t="s">
-        <v>42</v>
+      <c r="AI49" s="84" t="s">
+        <v>41</v>
       </c>
       <c r="AJ49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
       <c r="AK49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0297029702970297</v>
       </c>
       <c r="AL49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="AM49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6510891089108917</v>
       </c>
     </row>
@@ -7635,142 +7638,142 @@
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
       <c r="AH50" s="7"/>
-      <c r="AI50" s="84"/>
+      <c r="AI50" s="83"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <f t="shared" ref="B51:AH51" si="4">SUM(B5:B49)</f>
+        <f t="shared" ref="B51:AH51" si="5">SUM(B5:B49)</f>
         <v>155</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.5</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.5</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.5</v>
       </c>
       <c r="J51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101.5</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.5</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="Z51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="AA51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="AC51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.5</v>
       </c>
       <c r="AD51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.25</v>
       </c>
       <c r="AE51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="AF51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="AG51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="AH51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="AI51" s="84"/>
+      <c r="AI51" s="83"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
@@ -7806,13 +7809,13 @@
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
       <c r="AH52" s="7"/>
-      <c r="AI52" s="84"/>
+      <c r="AI52" s="83"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AI53" s="84"/>
+      <c r="AI53" s="83"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AI54" s="84"/>
+      <c r="AI54" s="83"/>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="Y62" s="1">
